--- a/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>school;occup_edu;occup_edu_2; occup_edu_h; educ; educ3</t>
+          <t>school;occup_edu_h</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -601,8 +601,14 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>case_when(_x000D_
-school %in% c(5,6)|occup_edu%in% c(7)|occup_edu_2  %in% c(7)|occup_edu_h%in% c(7)|educ %in% c(7)~ 7,                                                                                                                                               school%in% c(5,6)|occup_edu %in% c(6)|occup_edu_2  %in% c(6)|occup_edu_h%in% c(6)|educ%in% c(6)~ 6L,                                                                                                                                       school %in% c(5,6)|occup_edu%in% c(5)|occup_edu_2  %in% c(5)|occup_edu_h%in% c(5)|educ%in% c(5)~ 5L,                                                                                                                                 school %in% c(5,6)|occup_edu%in% c(4)|occup_edu_2 %in% c(4)|occup_edu_h%in% c(4)|educ%in% c(4)~ 4L,                                                                                                                         school %in% c(3,4)|occup_edu  %in% c(3)|occup_edu_2%in%c(3)|occup_edu_h%in% c(3)|educ %in% c(3)|educ3%in% c(3)~ 3L,                                                                                    school  %in% c(2)|occup_edu %in% c(2)|occup_edu_2 %in% c(2)|occup_edu_h%in% c(2)|educ %in% c(2)|educ3%in% c(2)~ 2L,                                                                                    school  %in% c(1)|occup_edu %in% c(1)|occup_edu_2 %in% c(1)|occup_edu_h%in% c(1)|educ %in% c(1)|educ3%in% c(1)~ 1L,                                       _x000D_
-school  %in% c(7)|occup_edu%in% c(8)|occup_edu_2  %in% c(8)|occup_edu_h%in% c(8)~ 9L,                                                                                                                                                                 TRUE ~ NA_integer_)</t>
+occup_edu_h%in% c(7)~ 7,_x000D_
+occup_edu_h%in% c(5,6)~ 6L,_x000D_
+occup_edu_h%in% c(3,4)~ 4L,_x000D_
+school %in% c(5,6) ~ 3L,_x000D_
+school %in% c(2,3,4)~ 2L,_x000D_
+school %in% c(1) ~ 0L,_x000D_
+school %in% c(7)|occup_edu_h%in% c(8)~ 9L,_x000D_
+TRUE ~ NA_integer_)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -642,7 +648,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>work_status; employ</t>
+          <t>work_status;employ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -653,10 +659,14 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>case_when(_x000D_
-work_status == 1 ~ 0,                                                                                                    work_status == 2~ 1,                                                                                                       work_status == 3~ 5,                                                                                                             work_status == 4 ~ 6;_x000D_
-work_status== 5 | work_status == 6 ~ 7,_x000D_
-work_status == 7 ~ 9,_x000D_
-employ== 1 ~ 1,                                                                                                                            employ == 2 ~ 2,                                                                                                                              employ == 3 ~ 2,                                                                                                                    employ== 4 ~ 7, TRUE ~ NA_integer_)</t>
+employ == 1 ~ 1,_x000D_
+employ == 2 ~ 2,_x000D_
+work_status == 3 ~ 3,_x000D_
+work_status %in% c(1,8) ~ 4,_x000D_
+work_status == 2 | employ == 4 ~ 5,_x000D_
+work_status %in% c(4,5) ~ 6,_x000D_
+work_status %in% c(6,7,9) | employ == 3 ~ 7,_x000D_
+TRUE ~ NA_integer_)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -696,12 +706,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>birth_place</t>
+          <t>__BLANK__</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>case_when</t>
+          <t>paste</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -711,7 +726,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -936,7 +951,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cignr_day</t>
+          <t>cignr_day;cigarnr_day;pipe_day</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,12 +961,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cignr_day*1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Amount of tobacco smoked currently per day, at time of diet assessment (conversion into grams: 1 cigarette = 1 gram of tobacco)</t>
+          <t>cignr_day*1+cigarnr_day*5+pipe_day*5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1089,24 +1099,36 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>fr_period1;fr_op7;age</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>case_when(_x000D_
+fr_op7 == 2 ~ 3, _x000D_
+fr_period1 == 3 &amp; age &gt;= 45 ~ 1,_x000D_
+fr_period1 == 2 &amp; age &gt;= 45 &amp; age &lt;= 55 ~ 2,_x000D_
+ fr_period1 %in% c(1, 2) &amp; age &lt; 45 ~ 0,_x000D_
+ fr_period1 == 3 &amp; age &lt; 45 ~ 0,_x000D_
+  TRUE ~ NA_real__x000D_
+    )</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>incompatible</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1273,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1598,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>hyp_i</t>
+          <t>hyp_i;htn_kora</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>recode</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>recode(1= 1; 2 = 0;)</t>
+          <t>case_when(                                                                                                                                                                                                                                                                                                                                                                                                                                !is.na(hyp_i) &amp; hyp_i == 1 ~ 1,                                                                                                                                                   !is.na(hyp_i) &amp; hyp_i == 2 ~ 0,                                                                                is.na(hyp_i) &amp; htn_kora == 1 ~ 1,                                                            is.na(hyp_i) &amp; htn_kora == 0 ~ 0,  TRUE ~ NA_real_  )</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1636,7 +1653,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>recode(0= 0; 1 = 1; 2=1;)</t>
+          <t>recode(0= 0; 1 = 1; 2=0;)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1736,17 +1753,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -1786,17 +1803,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1853,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -2189,24 +2206,34 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MED_STAT</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>This is created according to ATC code C10AA</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -2234,24 +2261,34 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MED_NSAID</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>This is created according to ATC code M01A and N02BA</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -2459,29 +2496,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>f2_mi_i_inc</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2533,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2509,29 +2541,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>f2_mi_year</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -2559,29 +2586,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>f2_stoke_i_inc</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -2609,29 +2631,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>f1_stroke_first_year_inc</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -2839,24 +2856,40 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>f1_htn_kora;f2_htn_kora</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>case_when(_x000D_
+      f1_htn_kora == 1 | f2_htn_kora == 1 ~ 1,_x000D_
+      f1_htn_kora == 0 &amp; f2_htn_kora == 0 ~ 0,_x000D_
+      TRUE ~ NA_real__x000D_
+    )</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t># if f1_htn_kora or  f2_htn_kora is yes(1) then map to 1_x000D_
+# both No(0) then map to 0_x000D_
+# everything else(NA)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2909,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2884,24 +2917,42 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>f1_htn_kora;f2_htn_kora;F1_untdat;F2_untdat;gebdat</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>case_when(_x000D_
+  f1_htn_kora == 1 ~ F1_untdat - gebdat,              _x000D_
+  f1_htn_kora != 1 &amp; f2_htn_kora == 1 ~ F2_untdat - gebdat,  _x000D_
+  TRUE ~ NA_real__x000D_
+)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>#If f1_htn_kora(measurement of presure) =(yes)1, use F1_untdat - gebdat _x000D_
+#Else if f2_htn_kora(medical use) = (yes)1, use F2_untdat - gebdat_x000D_
+#If both are 1, the first condition already takes the F1 value_x000D_
+_x000D_
+#If neither are 1, return NA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2987,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2951,12 +3002,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -2986,17 +3037,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>f1_age</t>
+          <t>f2_insuff_date;gebdat</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>f2_insuff_date-gebdat</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3006,12 +3057,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -3041,22 +3092,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3137,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -3129,29 +3180,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>f2_cancer1_inc</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -3179,29 +3225,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>f2_cancer1_typ</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -3229,34 +3270,24 @@
           <t>CARLA_P2</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>f2_cancer1_date</t>
-        </is>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>undetermined</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>date of diagnose and the date of birth</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3322,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -3336,27 +3367,32 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>tod_dat</t>
+          <t>tod_dat;gebdat</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>tod_dat-gebdat</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>date of death-date of birth</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4197,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>gj/4.2</t>
+          <t>gj/4.184</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4606,8 +4642,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>kd,_x000D_
-km</t>
+          <t>kd;km</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4987,7 +5022,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>mna, mk</t>
+          <t>mk;mna</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5035,6 +5070,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5060,6 +5120,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5085,6 +5170,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5110,6 +5220,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5135,6 +5270,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5160,6 +5320,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5185,6 +5370,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>approximate</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5210,6 +5420,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5235,6 +5470,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5260,6 +5520,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5285,6 +5570,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5310,6 +5620,31 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5333,6 +5668,36 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>CARLA_P2</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>__BLANK__</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>paste</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1(FFQ)</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>identical</t>
         </is>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -961,7 +961,13 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cignr_day*1+cigarnr_day*5+pipe_day*5</t>
+          <t>ifelse(is.na(cignr_day),_x000D_
+                      ifelse(is.na(cigarnr_day), _x000D_
+                             ifelse(is.na(pipe_day),0,pipe_day*5),_x000D_
+                             ifelse(is.na(pipe_day),cigarnr_day*5,cigarnr_day*5+pipe_day*5)),_x000D_
+                      ifelse(is.na(cigarnr_day),_x000D_
+                             ifelse(is.na(pipe_day),cignr_day*1,cignr_day*1+pipe_day*5),_x000D_
+                             ifelse(is.na(pipe_day),cignr_day*1+cigarnr_day*5, cignr_day*1+ cigarnr_day*5 + pipe_day*5)))</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1112,13 +1118,19 @@
       <c r="H15" t="inlineStr">
         <is>
           <t>case_when(_x000D_
-fr_op7 == 2 ~ 3, _x000D_
-fr_period1 == 3 &amp; age &gt;= 45 ~ 1,_x000D_
-fr_period1 == 2 &amp; age &gt;= 45 &amp; age &lt;= 55 ~ 2,_x000D_
- fr_period1 %in% c(1, 2) &amp; age &lt; 45 ~ 0,_x000D_
- fr_period1 == 3 &amp; age &lt; 45 ~ 0,_x000D_
-  TRUE ~ NA_real__x000D_
-    )</t>
+  fr_op7 == 2 ~ 3, _x000D_
+  fr_period1 == 3 ~ 1,_x000D_
+  fr_period1 == 1 ~ 0,_x000D_
+  fr_period1 == 2 &amp; age &gt;= 45 &amp; age &lt;= 55 ~ 2,_x000D_
+  fr_period1 == 2 &amp; age &lt; 45 ~ 0,_x000D_
+  fr_period1 == 2 &amp; age &gt; 55 ~ 1,_x000D_
+  TRUE ~ NA_integer__x000D_
+)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Perimenopausal category defined as "yes, irregular" period and age between 45 and 55 according to NAKO-QS-Report NAKO-1041</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1603,7 +1615,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>case_when(                                                                                                                                                                                                                                                                                                                                                                                                                                !is.na(hyp_i) &amp; hyp_i == 1 ~ 1,                                                                                                                                                   !is.na(hyp_i) &amp; hyp_i == 2 ~ 0,                                                                                is.na(hyp_i) &amp; htn_kora == 1 ~ 1,                                                            is.na(hyp_i) &amp; htn_kora == 0 ~ 0,  TRUE ~ NA_real_  )</t>
+          <t>case_when</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>case_when(                                                                                                                                                                                                                                                                                                                                                                                                                                _x000D_
+  hyp_i == 1 ~ 1, _x000D_
+  hyp_i == 2 ~ 0, _x000D_
+  is.na(hyp_i) &amp; htn_kora == 1 ~ 1,_x000D_
+  is.na(hyp_i) &amp; htn_kora == 0 ~ 0, _x000D_
+  TRUE ~ NA_integer_)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1753,7 +1775,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Category "No / I don't know" will be harmonised to "I don't know"</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1803,7 +1830,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Category "No / I don't know" will be harmonised to "I don't know"</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1853,7 +1885,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>recode(1= 1; 2 = 0; 3=0; 8=2;)</t>
+          <t>recode(1= 1; 2 = 0; 3=2; 8=2;)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Category "No / I don't know" will be harmonised to "I don't know"</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2208,7 +2245,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>med_stat</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2263,7 +2300,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>med_nsaid</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2871,7 +2908,7 @@
           <t>case_when(_x000D_
       f1_htn_kora == 1 | f2_htn_kora == 1 ~ 1,_x000D_
       f1_htn_kora == 0 &amp; f2_htn_kora == 0 ~ 0,_x000D_
-      TRUE ~ NA_real__x000D_
+      TRUE ~ NA_integer__x000D_
     )</t>
         </is>
       </c>
@@ -2919,7 +2956,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>f1_htn_kora;f2_htn_kora;F1_untdat;F2_untdat;gebdat</t>
+          <t>f1_htn_kora;f2_htn_kora;f1_untdat;f2_untdat;gebdat</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2930,8 +2967,8 @@
       <c r="H53" t="inlineStr">
         <is>
           <t>case_when(_x000D_
-  f1_htn_kora == 1 ~ F1_untdat - gebdat,              _x000D_
-  f1_htn_kora != 1 &amp; f2_htn_kora == 1 ~ F2_untdat - gebdat,  _x000D_
+  f1_htn_kora == 1 ~ as.numeric(f1_untdat - gebdat)/365.25,              _x000D_
+  f2_htn_kora == 1 ~ as.numeric(f2_untdat - gebdat)/365.25,  _x000D_
   TRUE ~ NA_real__x000D_
 )</t>
         </is>
@@ -3047,7 +3084,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>f2_insuff_date-gebdat</t>
+          <t>(f2_insuff_date-gebdat)/365.25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3377,7 +3414,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>tod_dat-gebdat</t>
+          <t>(tod_dat-gebdat)/365.25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_CARLA_P2.xlsx
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(f2_insuff_date-gebdat)/365.25</t>
+          <t>as.numeric(f2_insuff_date-gebdat)/365.25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(tod_dat-gebdat)/365.25</t>
+          <t>as.numeric(tod_dat-gebdat)/365.25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3547,24 +3547,30 @@
           <t>CARLA_P2</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>gebdat;f1_untdat;f2_untdat</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>as.numeric(pmax(((f1_untdat - gebdat)/365.25),_x000D_
+                ((f2_untdat - gebdat)/365.25),na.rm = TRUE))</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
